--- a/StructureDefinition-ext-R5-NutritionOrder.oralDiet.xlsx
+++ b/StructureDefinition-ext-R5-NutritionOrder.oralDiet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="258">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,15 +407,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes used to indicate the type of diet being ordered for a patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-diet-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -558,12 +549,6 @@
     <t>Extension.extension:schedule.extension:asNeededFor.value[x]</t>
   </si>
   <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to       consuming a nutrition product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medication-as-needed-reason-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:schedule.url</t>
   </si>
   <si>
@@ -636,12 +621,6 @@
     <t>Extension.extension:nutrient.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Codes for types of nutrients that are being modified such as carbohydrate or sodium.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-nutrient-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:nutrient.extension:amount</t>
   </si>
   <si>
@@ -673,7 +652,7 @@
     <t>Extension.extension:nutrient.extension:amount.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -739,12 +718,6 @@
     <t>Extension.extension:texture.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Codes for food consistency types or texture modifications to apply to foods.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-texture-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:texture.extension:foodType</t>
   </si>
   <si>
@@ -779,12 +752,6 @@
     <t>Extension.extension:texture.extension:foodType.value[x]</t>
   </si>
   <si>
-    <t>Codes for types of foods that are texture-modified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-modified-foodtype-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:texture.url</t>
   </si>
   <si>
@@ -823,12 +790,6 @@
   </si>
   <si>
     <t>Extension.extension:fluidConsistencyType.value[x]</t>
-  </si>
-  <si>
-    <t>Codes used to represent the consistency of fluids and liquids provided to the patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consistency-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:instruction</t>
@@ -1212,8 +1173,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="97.93359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.47265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2129,43 +2090,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -2173,13 +2134,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2204,14 +2165,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2280,7 +2241,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2383,7 +2344,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2486,13 +2447,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2517,14 +2478,14 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2593,10 +2554,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2696,10 +2657,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2801,10 +2762,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2844,7 +2805,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2906,10 +2867,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2932,13 +2893,13 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2989,7 +2950,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3001,7 +2962,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>120</v>
@@ -3009,13 +2970,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3040,14 +3001,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3116,10 +3077,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3219,10 +3180,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3324,10 +3285,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3367,7 +3328,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3429,10 +3390,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3455,13 +3416,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3512,7 +3473,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3524,7 +3485,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>120</v>
@@ -3532,13 +3493,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3563,14 +3524,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3639,10 +3600,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3742,10 +3703,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3847,10 +3808,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3890,7 +3851,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3952,10 +3913,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3981,10 +3942,10 @@
         <v>123</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4011,32 +3972,32 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4047,7 +4008,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>120</v>
@@ -4055,7 +4016,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4098,7 +4059,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4160,7 +4121,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -4186,13 +4147,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4243,7 +4204,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4255,7 +4216,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4263,13 +4224,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4294,14 +4255,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4370,7 +4331,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4473,7 +4434,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4576,13 +4537,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4607,14 +4568,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4683,10 +4644,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4786,10 +4747,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4891,10 +4852,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4934,7 +4895,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4996,10 +4957,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5025,10 +4986,10 @@
         <v>123</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5055,32 +5016,32 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5091,7 +5052,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>120</v>
@@ -5099,13 +5060,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5130,14 +5091,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5206,10 +5167,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5309,10 +5270,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5414,10 +5375,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5457,7 +5418,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5519,10 +5480,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5545,13 +5506,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5602,7 +5563,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5614,7 +5575,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>120</v>
@@ -5622,7 +5583,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5665,7 +5626,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5727,7 +5688,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -5753,13 +5714,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5810,7 +5771,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5822,7 +5783,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>120</v>
@@ -5830,13 +5791,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5861,14 +5822,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5937,7 +5898,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -6040,7 +6001,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -6143,13 +6104,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6174,16 +6135,16 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6252,10 +6213,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6355,10 +6316,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6460,10 +6421,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6503,7 +6464,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6565,10 +6526,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6594,13 +6555,13 @@
         <v>123</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6626,32 +6587,32 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
@@ -6662,7 +6623,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>120</v>
@@ -6670,13 +6631,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6701,16 +6662,16 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6779,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6882,10 +6843,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6987,10 +6948,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7030,7 +6991,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7092,10 +7053,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7121,13 +7082,13 @@
         <v>123</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7153,32 +7114,32 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
@@ -7189,7 +7150,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>120</v>
@@ -7197,7 +7158,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7240,7 +7201,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7302,7 +7263,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7328,13 +7289,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7385,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7397,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>120</v>
@@ -7405,13 +7366,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7436,14 +7397,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7512,7 +7473,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7615,7 +7576,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7720,7 +7681,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7763,7 +7724,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7825,7 +7786,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7854,10 +7815,10 @@
         <v>123</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7884,32 +7845,32 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
@@ -7920,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>120</v>
@@ -7928,13 +7889,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7959,16 +7920,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8037,7 +7998,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8140,7 +8101,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8245,7 +8206,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8288,7 +8249,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8350,7 +8311,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8379,13 +8340,13 @@
         <v>87</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8435,7 +8396,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8447,7 +8408,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>120</v>
@@ -8560,10 +8521,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8586,13 +8547,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8643,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -8655,7 +8616,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>120</v>
